--- a/data/trans_orig/P36B08_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>661709</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>631788</v>
+        <v>629793</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>692833</v>
+        <v>692393</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.64188159530863</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6128578520060749</v>
+        <v>0.6109219546951047</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6720734062189413</v>
+        <v>0.6716464365746635</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>942</v>
@@ -765,19 +765,19 @@
         <v>958323</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>921326</v>
+        <v>925808</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>987930</v>
+        <v>987147</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7287003109895677</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7005683090196301</v>
+        <v>0.7039758630886301</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7512129014953887</v>
+        <v>0.7506179653828237</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1616</v>
@@ -786,19 +786,19 @@
         <v>1620031</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1574044</v>
+        <v>1576860</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1663808</v>
+        <v>1662447</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6905501038355004</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6709475928102785</v>
+        <v>0.672148074608222</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7092104170601325</v>
+        <v>0.7086299720606333</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>369180</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>338056</v>
+        <v>338496</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>399101</v>
+        <v>401096</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.35811840469137</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3279265937810588</v>
+        <v>0.3283535634253367</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.387142147993925</v>
+        <v>0.3890780453048953</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>349</v>
@@ -836,19 +836,19 @@
         <v>356790</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>327183</v>
+        <v>327966</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>393787</v>
+        <v>389305</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2712996890104323</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2487870985046114</v>
+        <v>0.2493820346171764</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.29943169098037</v>
+        <v>0.2960241369113699</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>712</v>
@@ -857,19 +857,19 @@
         <v>725970</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>682193</v>
+        <v>683554</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>771957</v>
+        <v>769141</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3094498961644996</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2907895829398674</v>
+        <v>0.2913700279393668</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3290524071897215</v>
+        <v>0.327851925391778</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>1044188</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1003188</v>
+        <v>1006982</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1084164</v>
+        <v>1085150</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.616617196160787</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5924059797250611</v>
+        <v>0.5946464066874739</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6402244409818686</v>
+        <v>0.6408064547768219</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1072</v>
@@ -982,19 +982,19 @@
         <v>1105500</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1067557</v>
+        <v>1067050</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1139735</v>
+        <v>1139427</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6967674075754652</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6728529642359512</v>
+        <v>0.6725333798156946</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7183448674635081</v>
+        <v>0.7181505100667764</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2082</v>
@@ -1003,19 +1003,19 @@
         <v>2149688</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2094789</v>
+        <v>2097074</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2207071</v>
+        <v>2202408</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6553874344287488</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6386502675231337</v>
+        <v>0.6393468384273192</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6728821521636302</v>
+        <v>0.6714606761880346</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>649225</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>609249</v>
+        <v>608263</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>690225</v>
+        <v>686431</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.383382803839213</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3597755590181314</v>
+        <v>0.3591935452231781</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4075940202749387</v>
+        <v>0.4053535933125261</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>481</v>
@@ -1053,19 +1053,19 @@
         <v>481113</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>446878</v>
+        <v>447186</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>519056</v>
+        <v>519563</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3032325924245349</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2816551325364919</v>
+        <v>0.2818494899332235</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3271470357640489</v>
+        <v>0.3274666201843052</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1120</v>
@@ -1074,19 +1074,19 @@
         <v>1130338</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1072955</v>
+        <v>1077618</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1185237</v>
+        <v>1182952</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3446125655712513</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3271178478363699</v>
+        <v>0.3285393238119655</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3613497324768662</v>
+        <v>0.3606531615726808</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>365235</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>341578</v>
+        <v>340651</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>385827</v>
+        <v>385963</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6623682094275628</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.619465792978252</v>
+        <v>0.6177830593326072</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6997115637503022</v>
+        <v>0.699959117166769</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>318</v>
@@ -1199,19 +1199,19 @@
         <v>337748</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>317570</v>
+        <v>317519</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>358201</v>
+        <v>358290</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7089399755802532</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6665864207140145</v>
+        <v>0.6664799198731555</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.751871843059655</v>
+        <v>0.7520594833744433</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>664</v>
@@ -1220,19 +1220,19 @@
         <v>702983</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>674183</v>
+        <v>669556</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>733403</v>
+        <v>732584</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6839550053326126</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6559351689662335</v>
+        <v>0.6514332554066492</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.713551577272347</v>
+        <v>0.7127555882483186</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>186173</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>165581</v>
+        <v>165445</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>209830</v>
+        <v>210757</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3376317905724373</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3002884362496978</v>
+        <v>0.3000408828332308</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3805342070217478</v>
+        <v>0.3822169406673926</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -1270,19 +1270,19 @@
         <v>138664</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>118211</v>
+        <v>118122</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158842</v>
+        <v>158893</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2910600244197467</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2481281569403446</v>
+        <v>0.2479405166255563</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3334135792859843</v>
+        <v>0.3335200801268445</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>315</v>
@@ -1291,19 +1291,19 @@
         <v>324837</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>294417</v>
+        <v>295236</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>353637</v>
+        <v>358264</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3160449946673874</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2864484227276531</v>
+        <v>0.2872444117516811</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3440648310337665</v>
+        <v>0.3485667445933505</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>2071131</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2023674</v>
+        <v>2017955</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2133695</v>
+        <v>2128854</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6322694572759981</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6177819094330131</v>
+        <v>0.6160361948544836</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6513687992264694</v>
+        <v>0.6498909466268467</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2332</v>
@@ -1416,19 +1416,19 @@
         <v>2401570</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2345042</v>
+        <v>2351555</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2455498</v>
+        <v>2451425</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7109155939729996</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6941819389954378</v>
+        <v>0.6961098922633981</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7268794223330922</v>
+        <v>0.7256737620509387</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4362</v>
@@ -1437,19 +1437,19 @@
         <v>4472702</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4388737</v>
+        <v>4402797</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4542687</v>
+        <v>4554752</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6721978578537066</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6595789440501905</v>
+        <v>0.6616919305088612</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6827159017497733</v>
+        <v>0.6845290510300438</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1204578</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1142014</v>
+        <v>1146855</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1252035</v>
+        <v>1257754</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3677305427240019</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3486312007735312</v>
+        <v>0.3501090533731533</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3822180905669877</v>
+        <v>0.3839638051455162</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>964</v>
@@ -1487,19 +1487,19 @@
         <v>976567</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>922639</v>
+        <v>926712</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1033095</v>
+        <v>1026582</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2890844060270004</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2731205776669078</v>
+        <v>0.2743262379490614</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3058180610045624</v>
+        <v>0.303890107736602</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2147</v>
@@ -1508,19 +1508,19 @@
         <v>2181145</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2111160</v>
+        <v>2099095</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2265110</v>
+        <v>2251050</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3278021421462935</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3172840982502267</v>
+        <v>0.3154709489699563</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3404210559498095</v>
+        <v>0.3383080694911388</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>708260</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>677922</v>
+        <v>681536</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>734538</v>
+        <v>734544</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7297812024462821</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6985212987862923</v>
+        <v>0.7022449203452357</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7568580314400432</v>
+        <v>0.7568643755432886</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1007</v>
@@ -1872,19 +1872,19 @@
         <v>1078767</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1046890</v>
+        <v>1047847</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1106864</v>
+        <v>1107975</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8063757459942352</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.782547831149504</v>
+        <v>0.7832633920600868</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8273782457580399</v>
+        <v>0.8282088040538863</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1662</v>
@@ -1893,19 +1893,19 @@
         <v>1787026</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1745718</v>
+        <v>1746319</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1825040</v>
+        <v>1828252</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7741721544321969</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7562767878846286</v>
+        <v>0.7565371888155464</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7906404477833512</v>
+        <v>0.7920317962128786</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>262250</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>235972</v>
+        <v>235966</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292588</v>
+        <v>288974</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2702187975537179</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2431419685599569</v>
+        <v>0.2431356244567109</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3014787012137077</v>
+        <v>0.2977550796547636</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>240</v>
@@ -1943,19 +1943,19 @@
         <v>259030</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>230933</v>
+        <v>229822</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>290907</v>
+        <v>289950</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1936242540057648</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1726217542419601</v>
+        <v>0.1717911959461137</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.217452168850496</v>
+        <v>0.2167366079399132</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>489</v>
@@ -1964,19 +1964,19 @@
         <v>521280</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>483266</v>
+        <v>480054</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>562588</v>
+        <v>561987</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2258278455678031</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2093595522166491</v>
+        <v>0.2079682037871216</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2437232121153715</v>
+        <v>0.2434628111844536</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>1358817</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1317856</v>
+        <v>1317983</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1396038</v>
+        <v>1401737</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6925981982384101</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6717201145130141</v>
+        <v>0.6717843903881676</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7115696682513594</v>
+        <v>0.714474763966348</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1257</v>
@@ -2089,19 +2089,19 @@
         <v>1352919</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1312930</v>
+        <v>1316838</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1386984</v>
+        <v>1388101</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7731380282923623</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7502857880365106</v>
+        <v>0.7525194409065209</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7926046870622974</v>
+        <v>0.7932431449366494</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2533</v>
@@ -2110,19 +2110,19 @@
         <v>2711736</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2653569</v>
+        <v>2654396</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2765815</v>
+        <v>2765032</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7305680276001697</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7148971868218343</v>
+        <v>0.7151201331390913</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.745137471679996</v>
+        <v>0.74492649141527</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>603096</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>565875</v>
+        <v>560176</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>644057</v>
+        <v>643930</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3074018017615899</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2884303317486406</v>
+        <v>0.285525236033652</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3282798854869859</v>
+        <v>0.328215609611832</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>372</v>
@@ -2160,19 +2160,19 @@
         <v>396987</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>362922</v>
+        <v>361805</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>436976</v>
+        <v>433068</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2268619717076377</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2073953129377026</v>
+        <v>0.2067568550633505</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2497142119634889</v>
+        <v>0.2474805590934787</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>950</v>
@@ -2181,19 +2181,19 @@
         <v>1000083</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>946004</v>
+        <v>946787</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1058250</v>
+        <v>1057423</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2694319723998303</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.254862528320004</v>
+        <v>0.25507350858473</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2851028131781657</v>
+        <v>0.2848798668609088</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>362101</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>338120</v>
+        <v>340599</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>381115</v>
+        <v>381069</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7541380235915855</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7041937217121278</v>
+        <v>0.7093562525683677</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7937392246902264</v>
+        <v>0.7936414904722437</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>347</v>
@@ -2306,19 +2306,19 @@
         <v>388218</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>370977</v>
+        <v>371091</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>402745</v>
+        <v>402553</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8500583982276479</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.812306775553449</v>
+        <v>0.8125561019562131</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8818663173544397</v>
+        <v>0.8814468628702805</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>674</v>
@@ -2327,19 +2327,19 @@
         <v>750319</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>721377</v>
+        <v>723083</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>775436</v>
+        <v>774509</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8008974227041115</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7700044774985926</v>
+        <v>0.771825707888347</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8277077570158691</v>
+        <v>0.8267177066891722</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>118051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99037</v>
+        <v>99083</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>142032</v>
+        <v>139553</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2458619764084145</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2062607753097743</v>
+        <v>0.2063585095277565</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2958062782878724</v>
+        <v>0.2906437474316325</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>64</v>
@@ -2377,19 +2377,19 @@
         <v>68478</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>53951</v>
+        <v>54143</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>85719</v>
+        <v>85605</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.149941601772352</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1181336826455603</v>
+        <v>0.1185531371297195</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1876932244465507</v>
+        <v>0.1874438980437869</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>174</v>
@@ -2398,19 +2398,19 @@
         <v>186529</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>161412</v>
+        <v>162339</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>215471</v>
+        <v>213765</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1991025772958886</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1722922429841304</v>
+        <v>0.1732822933108277</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2299955225014073</v>
+        <v>0.2281742921116527</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>2429178</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2375140</v>
+        <v>2373968</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2485346</v>
+        <v>2484235</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7118314580634544</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6959965671641595</v>
+        <v>0.6956531618781037</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7282906440671963</v>
+        <v>0.7279650707085236</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2611</v>
@@ -2523,19 +2523,19 @@
         <v>2819903</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2770132</v>
+        <v>2770824</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2867129</v>
+        <v>2873533</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7955944539964701</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7815522053859296</v>
+        <v>0.7817474735117256</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8089183543842843</v>
+        <v>0.8107251781958883</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4869</v>
@@ -2544,19 +2544,19 @@
         <v>5249082</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5176619</v>
+        <v>5179034</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5323748</v>
+        <v>5320919</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7545065451512666</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7440906765241189</v>
+        <v>0.7444378114090862</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7652390800354339</v>
+        <v>0.7648325452342095</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>983396</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>927228</v>
+        <v>928339</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1037434</v>
+        <v>1038606</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2881685419365456</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2717093559328037</v>
+        <v>0.2720349292914763</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3040034328358406</v>
+        <v>0.3043468381218963</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>676</v>
@@ -2594,19 +2594,19 @@
         <v>724495</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>677269</v>
+        <v>670865</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>774266</v>
+        <v>773574</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2044055460035299</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1910816456157156</v>
+        <v>0.1892748218041114</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2184477946140703</v>
+        <v>0.2182525264882742</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1613</v>
@@ -2615,19 +2615,19 @@
         <v>1707891</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1633225</v>
+        <v>1636054</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1780354</v>
+        <v>1777939</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2454934548487334</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2347609199645661</v>
+        <v>0.2351674547657904</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2559093234758812</v>
+        <v>0.2555621885909137</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>575138</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>551311</v>
+        <v>548997</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>597009</v>
+        <v>595834</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7644172986711041</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7327485689101217</v>
+        <v>0.7296730685991369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7934860620795329</v>
+        <v>0.7919242114290962</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>705</v>
@@ -2979,19 +2979,19 @@
         <v>785900</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>758180</v>
+        <v>758211</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>811960</v>
+        <v>808716</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7936850771905379</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7656910221930483</v>
+        <v>0.7657217255332729</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8200037944935418</v>
+        <v>0.8167272099828236</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1288</v>
@@ -3000,19 +3000,19 @@
         <v>1361038</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1326113</v>
+        <v>1323918</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1397116</v>
+        <v>1395544</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7810482201429442</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7610059406870007</v>
+        <v>0.7597465864393309</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8017517027105305</v>
+        <v>0.8008499065929547</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>177250</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>155379</v>
+        <v>156554</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>201077</v>
+        <v>203391</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2355827013288959</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2065139379204671</v>
+        <v>0.2080757885709037</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2672514310898794</v>
+        <v>0.2703269314008631</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -3050,19 +3050,19 @@
         <v>204291</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>178231</v>
+        <v>181475</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>232011</v>
+        <v>231980</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2063149228094621</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1799962055064585</v>
+        <v>0.1832727900171764</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2343089778069517</v>
+        <v>0.2342782744667269</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>360</v>
@@ -3071,19 +3071,19 @@
         <v>381541</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>345463</v>
+        <v>347035</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>416466</v>
+        <v>418661</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2189517798570558</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1982482972894694</v>
+        <v>0.1991500934070451</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2389940593129993</v>
+        <v>0.2402534135606691</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>1428243</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1382318</v>
+        <v>1383957</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1474422</v>
+        <v>1470153</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.692255075632073</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6699955829782133</v>
+        <v>0.6707897947190117</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7146375190366807</v>
+        <v>0.7125680574885189</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1415</v>
@@ -3196,19 +3196,19 @@
         <v>1485319</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1447364</v>
+        <v>1447221</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1528845</v>
+        <v>1520715</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7509292267023018</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7317401412952139</v>
+        <v>0.7316682235047162</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7729345825796853</v>
+        <v>0.768824038933041</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2763</v>
@@ -3217,19 +3217,19 @@
         <v>2913563</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2856096</v>
+        <v>2854233</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2970469</v>
+        <v>2964603</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7209736361753482</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7067532032338656</v>
+        <v>0.7062922353236296</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7350554581384686</v>
+        <v>0.7336038783022756</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>634932</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>588753</v>
+        <v>593022</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>680857</v>
+        <v>679218</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.307744924367927</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.285362480963319</v>
+        <v>0.2874319425114812</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3300044170217867</v>
+        <v>0.3292102052809887</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>483</v>
@@ -3267,19 +3267,19 @@
         <v>492656</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>449130</v>
+        <v>457260</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>530611</v>
+        <v>530754</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2490707732976982</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2270654174203147</v>
+        <v>0.231175961066959</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2682598587047862</v>
+        <v>0.2683317764952839</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1076</v>
@@ -3288,19 +3288,19 @@
         <v>1127587</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1070681</v>
+        <v>1076547</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1185054</v>
+        <v>1186917</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2790263638246518</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2649445418615314</v>
+        <v>0.2663961216977244</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2932467967661345</v>
+        <v>0.2937077646763704</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>426700</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>406079</v>
+        <v>404037</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>447981</v>
+        <v>446268</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7831144438178589</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7452686806311545</v>
+        <v>0.7415218554278896</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8221711656098571</v>
+        <v>0.8190261778604345</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>426</v>
@@ -3413,19 +3413,19 @@
         <v>448114</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>429760</v>
+        <v>429739</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>465678</v>
+        <v>465849</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8189571857740566</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7854137020020374</v>
+        <v>0.7853755358682627</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8510576424675401</v>
+        <v>0.8513698828858143</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>818</v>
@@ -3434,19 +3434,19 @@
         <v>874814</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>846930</v>
+        <v>845926</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>901600</v>
+        <v>900062</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8010735619139954</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7755402804845748</v>
+        <v>0.7746206408759728</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.825601904643773</v>
+        <v>0.8241935813699086</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>118176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>96895</v>
+        <v>98608</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>138797</v>
+        <v>140839</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2168855561821411</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1778288343901431</v>
+        <v>0.1809738221395662</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2547313193688457</v>
+        <v>0.2584781445721106</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>98</v>
@@ -3484,19 +3484,19 @@
         <v>99062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>81498</v>
+        <v>81327</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>117416</v>
+        <v>117437</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1810428142259434</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1489423575324599</v>
+        <v>0.1486301171141856</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2145862979979626</v>
+        <v>0.2146244641317372</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>205</v>
@@ -3505,19 +3505,19 @@
         <v>217238</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>190452</v>
+        <v>191990</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>245122</v>
+        <v>246126</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1989264380860046</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.174398095356227</v>
+        <v>0.1758064186300911</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2244597195154253</v>
+        <v>0.225379359124027</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>2430082</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2381468</v>
+        <v>2375406</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2486377</v>
+        <v>2479716</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7231442211490859</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.708677741372806</v>
+        <v>0.706873627309224</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7398964472697714</v>
+        <v>0.7379143432173647</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2546</v>
@@ -3630,19 +3630,19 @@
         <v>2719334</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2664546</v>
+        <v>2666874</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2765799</v>
+        <v>2764621</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7735613742528189</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7579761356757277</v>
+        <v>0.7586384714237971</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.786779170209251</v>
+        <v>0.7864441328003746</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4869</v>
@@ -3651,19 +3651,19 @@
         <v>5149416</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5074638</v>
+        <v>5079318</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5217491</v>
+        <v>5227202</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7489207188231645</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7380451480296083</v>
+        <v>0.7387258460124837</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7588214804471535</v>
+        <v>0.7602338552361845</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>930357</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>874062</v>
+        <v>880723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>978971</v>
+        <v>985033</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2768557788509141</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2601035527302286</v>
+        <v>0.2620856567826353</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.291322258627194</v>
+        <v>0.2931263726907758</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>764</v>
@@ -3701,19 +3701,19 @@
         <v>796009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>749544</v>
+        <v>750722</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>850797</v>
+        <v>848469</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2264386257471811</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2132208297907492</v>
+        <v>0.2135558671996256</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2420238643242724</v>
+        <v>0.2413615285762028</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1641</v>
@@ -3722,19 +3722,19 @@
         <v>1726366</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1658291</v>
+        <v>1648580</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1801144</v>
+        <v>1796464</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2510792811768355</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2411785195528464</v>
+        <v>0.2397661447638157</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2619548519703915</v>
+        <v>0.2612741539875163</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>539690</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>528076</v>
+        <v>525640</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>550381</v>
+        <v>550525</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9341053208142427</v>
+        <v>0.9341053208142429</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9140036794788362</v>
+        <v>0.909788029863871</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9526097516432278</v>
+        <v>0.9528591104670344</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1352</v>
@@ -4086,19 +4086,19 @@
         <v>776408</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>764364</v>
+        <v>765657</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>784824</v>
+        <v>785038</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9468645214473231</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9321757680706811</v>
+        <v>0.9337536915255701</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9571280708207762</v>
+        <v>0.9573895642004761</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2001</v>
@@ -4107,19 +4107,19 @@
         <v>1316098</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1298991</v>
+        <v>1296957</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1329951</v>
+        <v>1331023</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.941590456179356</v>
+        <v>0.9415904561793558</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9293516356426234</v>
+        <v>0.9278960551710207</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9515017870688871</v>
+        <v>0.9522684874817947</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>38071</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27380</v>
+        <v>27236</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49685</v>
+        <v>52121</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06589467918575721</v>
+        <v>0.06589467918575723</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04739024835677215</v>
+        <v>0.04714088953296543</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08599632052116377</v>
+        <v>0.09021197013612915</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -4157,19 +4157,19 @@
         <v>43570</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35154</v>
+        <v>34940</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55614</v>
+        <v>54321</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05313547855267681</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0428719291792235</v>
+        <v>0.04261043579952366</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06782423192931887</v>
+        <v>0.06624630847442985</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>112</v>
@@ -4178,19 +4178,19 @@
         <v>81641</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67788</v>
+        <v>66716</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98748</v>
+        <v>100782</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05840954382064418</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.048498212931113</v>
+        <v>0.04773151251820559</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07064836435737737</v>
+        <v>0.07210394482897947</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>2090869</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2062421</v>
+        <v>2059254</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2117176</v>
+        <v>2115390</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9385523897242735</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9257823981087945</v>
+        <v>0.9243606491190743</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9503608842699498</v>
+        <v>0.9495593082607293</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2817</v>
@@ -4303,19 +4303,19 @@
         <v>2080003</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2058654</v>
+        <v>2059596</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2097853</v>
+        <v>2096326</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9588241717839899</v>
+        <v>0.9588241717839897</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9489827825108401</v>
+        <v>0.9494168508225546</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9670523399163222</v>
+        <v>0.9663483550220446</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4698</v>
@@ -4324,19 +4324,19 @@
         <v>4170873</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4133944</v>
+        <v>4135318</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4202257</v>
+        <v>4202730</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9485535862637352</v>
+        <v>0.9485535862637354</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9401552337735198</v>
+        <v>0.9404676729200886</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9556911019316258</v>
+        <v>0.9557987732745763</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>136891</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>110584</v>
+        <v>112370</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>165339</v>
+        <v>168506</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06144761027572641</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04963911573005011</v>
+        <v>0.05044069173927099</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07421760189120447</v>
+        <v>0.07563935088092504</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>101</v>
@@ -4374,19 +4374,19 @@
         <v>89324</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>71474</v>
+        <v>73001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>110673</v>
+        <v>109731</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.04117582821601028</v>
+        <v>0.04117582821601027</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03294766008367759</v>
+        <v>0.03365164497795559</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05101721748915995</v>
+        <v>0.05058314917744542</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>209</v>
@@ -4395,19 +4395,19 @@
         <v>226214</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>194830</v>
+        <v>194357</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>263143</v>
+        <v>261769</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.05144641373626468</v>
+        <v>0.0514464137362647</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04430889806837408</v>
+        <v>0.04420122672542338</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05984476622647973</v>
+        <v>0.05953232707991125</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>688398</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>675970</v>
+        <v>674988</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>696405</v>
+        <v>697174</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9674125733578696</v>
+        <v>0.9674125733578695</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9499464139401944</v>
+        <v>0.9485676287455551</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9786652838400978</v>
+        <v>0.9797452791978186</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>979</v>
@@ -4520,19 +4520,19 @@
         <v>710243</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>699086</v>
+        <v>697319</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>718840</v>
+        <v>718822</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9664793678074356</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9512963770014389</v>
+        <v>0.9488921062390338</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9781771902201667</v>
+        <v>0.9781534218060304</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1638</v>
@@ -4541,19 +4541,19 @@
         <v>1398642</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1382928</v>
+        <v>1381777</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1411319</v>
+        <v>1411513</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9669384575765574</v>
+        <v>0.9669384575765573</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9560747899304018</v>
+        <v>0.9552791631125158</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9757026172829396</v>
+        <v>0.9758367307270421</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>23189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15182</v>
+        <v>14413</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35617</v>
+        <v>36599</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03258742664213042</v>
+        <v>0.03258742664213041</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02133471615990207</v>
+        <v>0.02025472080218141</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05005358605980558</v>
+        <v>0.05143237125444487</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -4591,19 +4591,19 @@
         <v>24634</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16037</v>
+        <v>16055</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35791</v>
+        <v>37558</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03352063219256424</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02182280977983332</v>
+        <v>0.02184657819396955</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04870362299856106</v>
+        <v>0.05110789376096614</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>47</v>
@@ -4612,19 +4612,19 @@
         <v>47822</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35145</v>
+        <v>34951</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>63536</v>
+        <v>64687</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.03306154242344277</v>
+        <v>0.03306154242344275</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02429738271706054</v>
+        <v>0.02416326927295754</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04392521006959817</v>
+        <v>0.04472083688748386</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>3318956</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3287218</v>
+        <v>3286110</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3351219</v>
+        <v>3348056</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9436609031595274</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9346367725223635</v>
+        <v>0.9343219034860605</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9528339733218972</v>
+        <v>0.9519346459788153</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5148</v>
@@ -4737,19 +4737,19 @@
         <v>3566656</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3539780</v>
+        <v>3540336</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3587728</v>
+        <v>3588150</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9577015035248856</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.950485059312987</v>
+        <v>0.9506343028303242</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9633596664315844</v>
+        <v>0.963473176625734</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8337</v>
@@ -4758,19 +4758,19 @@
         <v>6885612</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6844307</v>
+        <v>6844761</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6924676</v>
+        <v>6924729</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9508819590420229</v>
+        <v>0.950881959042023</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9451777933068493</v>
+        <v>0.9452405242462084</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9562766273827367</v>
+        <v>0.9562839376187438</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>198151</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>165888</v>
+        <v>169051</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>229889</v>
+        <v>230997</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05633909684047245</v>
+        <v>0.05633909684047246</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04716602667810289</v>
+        <v>0.04806535402118468</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0653632274776365</v>
+        <v>0.06567809651393955</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>197</v>
@@ -4808,19 +4808,19 @@
         <v>157527</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>136455</v>
+        <v>136033</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>184403</v>
+        <v>183847</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.04229849647511447</v>
+        <v>0.04229849647511446</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03664033356841551</v>
+        <v>0.03652682337426651</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04951494068701303</v>
+        <v>0.04936569716967591</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>368</v>
@@ -4829,19 +4829,19 @@
         <v>355678</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>316614</v>
+        <v>316561</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>396983</v>
+        <v>396529</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04911804095797706</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04372337261726329</v>
+        <v>0.04371606238125603</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05482220669315072</v>
+        <v>0.05475947575379139</v>
       </c>
     </row>
     <row r="15">
